--- a/Sizing/Resources/MagElec GearBox Data_2019 Borchure final with avaiable gear ratio.xlsx
+++ b/Sizing/Resources/MagElec GearBox Data_2019 Borchure final with avaiable gear ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnigear-my.sharepoint.com/personal/adhopaokar_omnipowertrain_com/Documents/Desktop/Reference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2058F017-CE81-4712-B520-0A5EFA8A3F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1375C54E-4324-48F0-9D5B-93AEC3440897}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A016AD4-08F6-440E-91D4-DFF30C7B2529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 G-Box" sheetId="5" r:id="rId1"/>
@@ -858,18 +858,18 @@
   <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="3" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="26" t="s">
         <v>54</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="G2" s="28"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="9" t="s">
         <v>21</v>
@@ -900,7 +900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -965,7 +965,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -989,7 +989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
         <v>55</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="18">
         <v>2.5299999999999998</v>
@@ -1035,7 +1035,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="18">
         <v>3.5</v>
@@ -1057,7 +1057,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
       <c r="C11" s="18">
         <v>4</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
       <c r="C12" s="18">
         <v>4.43</v>
@@ -1092,7 +1092,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
       <c r="D13" s="17">
         <v>10.11</v>
@@ -1105,7 +1105,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
       <c r="C14" s="10"/>
       <c r="D14" s="17">
@@ -1119,7 +1119,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="10"/>
       <c r="D15" s="17">
@@ -1133,7 +1133,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
       <c r="C16" s="20"/>
       <c r="D16" s="17">
@@ -1145,7 +1145,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1345,13 +1345,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>27</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>34</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>17</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1525,21 +1525,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100985447DA41BC1A4AAC70CF8E73A66384" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b4a2b7dba3c77b6a9761f2fd59bdc34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="abe711f6-c11e-4c01-a94b-9aeadac97578" xmlns:ns4="b0940d95-6ea9-4175-8c20-65f105e6df91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e43fc80c8d2c1b8b7701201601d5e6c3" ns3:_="" ns4:_="">
     <xsd:import namespace="abe711f6-c11e-4c01-a94b-9aeadac97578"/>
@@ -1762,24 +1747,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D08117D-FF78-4F30-8C06-83BC42D6C784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3187B3F-954E-4D98-9CD3-8321D6F881D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71741DB-1E38-4ADF-B1F9-3DC4DED32DAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1796,4 +1779,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3187B3F-954E-4D98-9CD3-8321D6F881D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D08117D-FF78-4F30-8C06-83BC42D6C784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>